--- a/Data/Temp/Yearly-Report-2021-RO123456.xlsx
+++ b/Data/Temp/Yearly-Report-2021-RO123456.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>934318</x:t>
   </x:si>
@@ -58,12 +58,66 @@
     <x:t>2017-02-10</x:t>
   </x:si>
   <x:si>
+    <x:t>431391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>942.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5656.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33047.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>814787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19905.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-25</x:t>
+  </x:si>
+  <x:si>
     <x:t>109291</x:t>
   </x:si>
   <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
     <x:t>65262</x:t>
   </x:si>
   <x:si>
@@ -73,27 +127,9 @@
     <x:t>78314.4</x:t>
   </x:si>
   <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-07-05</x:t>
   </x:si>
   <x:si>
-    <x:t>814787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19905.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-25</x:t>
-  </x:si>
-  <x:si>
     <x:t>503773</x:t>
   </x:si>
   <x:si>
@@ -143,9 +179,6 @@
   </x:si>
   <x:si>
     <x:t>823477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
     <x:t>6925</x:t>
@@ -603,160 +636,206 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
